--- a/data/section_1.xlsx
+++ b/data/section_1.xlsx
@@ -307,7 +307,7 @@
       <c r="D1" s="3" t="n">
         <v>6016855180</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="3" t="n">
         <v>6959852164</v>
       </c>
     </row>
@@ -332,7 +332,7 @@
           <t>dgdsg gs dgds</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>fsd fds fdsf</t>
         </is>
@@ -370,7 +370,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -382,7 +382,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -406,7 +406,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>Да</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>

--- a/data/section_1.xlsx
+++ b/data/section_1.xlsx
@@ -278,10 +278,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -301,14 +301,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" t="n">
         <v>603789543</v>
-      </c>
-      <c r="D1" s="3" t="n">
-        <v>6016855180</v>
-      </c>
-      <c r="E1" s="3" t="n">
-        <v>6959852164</v>
       </c>
     </row>
     <row r="2" ht="33" customFormat="1" customHeight="1" s="3">
@@ -322,19 +316,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>gdfdgf gfgdf gfg</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>dgdsg gs dgds</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>fsd fds fdsf</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>errefd fdsf dfds</t>
         </is>
       </c>
     </row>
@@ -356,11 +340,6 @@
           <t>Читать монтажные чертежи, спецификации, руководства по эксплуатации, паспорта, формуляры монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B5" s="4" t="inlineStr">
@@ -368,11 +347,6 @@
           <t>Пользоваться средствами для вскрытия упаковки слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B6" s="4" t="inlineStr">
@@ -380,11 +354,6 @@
           <t>Пользоваться ведомостью спецификации оборудования для проверки соответствия номенклатуры монтируемого слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B7" s="4" t="inlineStr">
@@ -392,11 +361,6 @@
           <t>Применять правила складирования слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B8" s="4" t="inlineStr">
@@ -404,11 +368,6 @@
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B9" s="4" t="inlineStr">
@@ -416,11 +375,6 @@
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B10" s="4" t="inlineStr">
@@ -428,11 +382,6 @@
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="A11" s="3" t="inlineStr">
@@ -445,11 +394,6 @@
           <t>Документы, подтверждающие качество монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="12" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B12" s="4" t="inlineStr">
@@ -457,11 +401,6 @@
           <t>Номенклатура, типы, особенности слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B13" s="4" t="inlineStr">
@@ -469,11 +408,6 @@
           <t>Правила приемки монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B14" s="4" t="inlineStr">
@@ -481,11 +415,6 @@
           <t>Правила распаковки монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B15" s="4" t="inlineStr">
@@ -493,11 +422,6 @@
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B16" s="4" t="inlineStr">
@@ -505,11 +429,6 @@
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="17" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B17" s="4" t="inlineStr">
@@ -517,11 +436,6 @@
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B18" s="4" t="inlineStr">
@@ -529,11 +443,6 @@
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="19" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B19" s="4" t="inlineStr">
@@ -541,11 +450,6 @@
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="20" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B20" s="4" t="inlineStr">
@@ -553,11 +457,6 @@
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="21" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B21" s="4" t="inlineStr">
@@ -577,11 +476,6 @@
           <t>Читать рабочие чертежи, электрические схемы, схемы (таблицы) соединений слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="23" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B23" s="4" t="inlineStr">
@@ -589,11 +483,6 @@
           <t>Проверять работоспособность оборудования и инструментов, используемых при подготовке и установке деталей крепления монтируемого слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="24" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B24" s="4" t="inlineStr">
@@ -601,11 +490,6 @@
           <t>Применять ручной инструмент для разметки деталей слаботочного электрооборудования систем охраны и безопасности по шаблону</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B25" s="4" t="inlineStr">
@@ -613,11 +497,6 @@
           <t>Применять электрифицированный инструмент для сверления отверстий в стенах, потолках и полах</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="26" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B26" s="4" t="inlineStr">
@@ -625,11 +504,6 @@
           <t>Применять электрифицированный инструмент для пробивки (пропила) борозд (штроб) в строительных конструкциях для установки деталей крепления слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="27" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B27" s="4" t="inlineStr">
@@ -637,11 +511,6 @@
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="28" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B28" s="4" t="inlineStr">
@@ -649,11 +518,6 @@
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B29" s="4" t="inlineStr">
@@ -661,11 +525,6 @@
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении подготовительных работ по монтажу слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="30" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="A30" s="3" t="inlineStr">
@@ -678,11 +537,6 @@
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="31" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B31" s="4" t="inlineStr">
@@ -690,11 +544,6 @@
           <t>Правила изготовления деталей крепления слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="32" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B32" s="4" t="inlineStr">
@@ -702,11 +551,6 @@
           <t>Основные виды крепежных деталей и мелких конструкций</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="33" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B33" s="4" t="inlineStr">
@@ -714,11 +558,6 @@
           <t>Правила монтажа деталей крепления слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="34" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B34" s="4" t="inlineStr">
@@ -726,11 +565,6 @@
           <t>Правила применения ручного и ручного электрифицированного инструмента для выполнения разметки и сверления отверстий, пропила штроб в стенах, перекрытиях для установки деталей крепления монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="35" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B35" s="4" t="inlineStr">
@@ -738,11 +572,6 @@
           <t>Правила выполнения подготовительных работ по монтажу слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="36" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B36" s="4" t="inlineStr">
@@ -750,11 +579,6 @@
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="37" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B37" s="4" t="inlineStr">
@@ -762,11 +586,6 @@
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="38" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B38" s="4" t="inlineStr">
@@ -774,11 +593,6 @@
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="39" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B39" s="4" t="inlineStr">
@@ -786,21 +600,11 @@
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="40" ht="54.75" customFormat="1" customHeight="1" s="3">
       <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>Да</t>
         </is>
       </c>
     </row>
